--- a/paradigm/classes.xlsx
+++ b/paradigm/classes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Mirage91\Program\paradigm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Mirage91\Program\venv\mirage91\paradigm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F78BC64-B7BE-4795-BA60-1807DB2B39AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C98485-EF41-441B-9E68-9B49337A4B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>pic_name</t>
   </si>
@@ -28,18 +28,6 @@
     <t>class_mi</t>
   </si>
   <si>
-    <t>left_foot</t>
-  </si>
-  <si>
-    <t>right_foot</t>
-  </si>
-  <si>
-    <t>pics/left_foot.JPG</t>
-  </si>
-  <si>
-    <t>pics/right_foot.JPG</t>
-  </si>
-  <si>
     <t>pics/left_hand.JPG</t>
   </si>
   <si>
@@ -50,6 +38,12 @@
   </si>
   <si>
     <t>pics/mental_singing.JPG</t>
+  </si>
+  <si>
+    <t>pics/feet.JPG</t>
+  </si>
+  <si>
+    <t>feet</t>
   </si>
 </sst>
 </file>
@@ -90,10 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -324,10 +317,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -335,7 +328,7 @@
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -343,36 +336,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
+      <c r="A4" t="s">
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
